--- a/Asistencia/Grupo 51.xlsx
+++ b/Asistencia/Grupo 51.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919F27C7-6007-4167-828E-62896920D3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AFB09C-1D6B-4615-A2C9-17C7F5F9B18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -405,14 +405,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -433,6 +433,56 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -824,12 +874,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="T47" sqref="T47"/>
+      <selection pane="topRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -837,7 +887,7 @@
     <col min="3" max="3" width="60.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -850,7 +900,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -863,7 +913,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -876,7 +926,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -928,11 +978,14 @@
       <c r="S4" s="8">
         <v>45076</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="8">
+        <v>45083</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -984,12 +1037,15 @@
       <c r="S5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="T5">
-        <f>COUNTIF(I5:S5,"F")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5">
+        <f>COUNTIF(I5:T5,"F")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1039,12 +1095,15 @@
       <c r="S6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T6">
-        <f t="shared" ref="T6:T38" si="0">COUNTIF(I6:S6,"F")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6">
+        <f>COUNTIF(I6:T6,"F")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1094,12 +1153,15 @@
       <c r="S7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U38" si="0">COUNTIF(I7:T7,"F")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1149,12 +1211,15 @@
       <c r="S8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1204,12 +1269,15 @@
       <c r="S9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1259,12 +1327,15 @@
       <c r="S10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1314,12 +1385,15 @@
       <c r="S11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1369,12 +1443,15 @@
       <c r="S12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1406,12 +1483,15 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
-      <c r="T13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1441,12 +1521,13 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14">
+      <c r="T14" s="12"/>
+      <c r="U14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1478,12 +1559,13 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
-      <c r="T15">
+      <c r="T15" s="12"/>
+      <c r="U15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1513,12 +1595,13 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-      <c r="T16">
+      <c r="T16" s="12"/>
+      <c r="U16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1568,12 +1651,15 @@
       <c r="S17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T17">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1603,12 +1689,15 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
-      <c r="T18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1654,12 +1743,15 @@
       <c r="S19" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T19">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1691,12 +1783,13 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20">
+      <c r="T20" s="12"/>
+      <c r="U20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1746,12 +1839,15 @@
       <c r="S21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1801,12 +1897,15 @@
       <c r="S22" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T22">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1840,12 +1939,13 @@
       <c r="S23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="12"/>
+      <c r="U23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1879,12 +1979,13 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24">
+      <c r="T24" s="12"/>
+      <c r="U24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1928,12 +2029,15 @@
       <c r="S25" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T25">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1965,12 +2069,13 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
-      <c r="T26">
+      <c r="T26" s="12"/>
+      <c r="U26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2000,12 +2105,13 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
-      <c r="T27">
+      <c r="T27" s="12"/>
+      <c r="U27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2027,15 +2133,9 @@
       <c r="I28" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
       <c r="M28" s="12" t="s">
         <v>74</v>
       </c>
@@ -2055,12 +2155,13 @@
       <c r="S28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T28">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T28" s="12"/>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2094,12 +2195,13 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-      <c r="T29">
+      <c r="T29" s="12"/>
+      <c r="U29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2133,12 +2235,13 @@
       <c r="S30" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="12"/>
+      <c r="U30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2186,12 +2289,15 @@
       <c r="S31" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T31">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2239,12 +2345,15 @@
       <c r="S32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T32">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2278,12 +2387,13 @@
         <v>74</v>
       </c>
       <c r="S33" s="12"/>
-      <c r="T33">
+      <c r="T33" s="12"/>
+      <c r="U33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -2317,12 +2427,13 @@
         <v>74</v>
       </c>
       <c r="S34" s="12"/>
-      <c r="T34">
+      <c r="T34" s="12"/>
+      <c r="U34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -2364,12 +2475,15 @@
       <c r="S35" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T35">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -2405,12 +2519,13 @@
         <v>74</v>
       </c>
       <c r="S36" s="12"/>
-      <c r="T36">
+      <c r="T36" s="12"/>
+      <c r="U36">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -2457,13 +2572,18 @@
       <c r="R37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="S37" s="12"/>
-      <c r="T37">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>22</v>
       </c>
@@ -2493,7 +2613,8 @@
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
-      <c r="T38">
+      <c r="T38" s="12"/>
+      <c r="U38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2504,30 +2625,31 @@
     <mergeCell ref="Q5:Q36"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:R38">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:S36">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="I5:T36">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>" "</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:T38">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:S38">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>1</formula>
+  <conditionalFormatting sqref="S5:T38">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="T5:T13 T19:T26 T28:T37" unlockedFormula="1"/>
-    <ignoredError sqref="T14:T18 T27 T38" formulaRange="1" unlockedFormula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Asistencia/Grupo 51.xlsx
+++ b/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AFB09C-1D6B-4615-A2C9-17C7F5F9B18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB1E1B-D543-4AA5-8781-D37338948546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="79">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -874,12 +874,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="V5" sqref="V5"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -887,7 +887,7 @@
     <col min="3" max="3" width="60.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -981,11 +981,17 @@
       <c r="T4" s="8">
         <v>45083</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="8">
+        <v>45090</v>
+      </c>
+      <c r="V4" s="8">
+        <v>45097</v>
+      </c>
+      <c r="W4" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1040,12 +1046,18 @@
       <c r="T5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="U5">
-        <f>COUNTIF(I5:T5,"F")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5">
+        <f>COUNTIF(I5:V5,"F")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1098,12 +1110,18 @@
       <c r="T6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U6">
-        <f>COUNTIF(I6:T6,"F")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6">
+        <f>COUNTIF(I6:V6,"F")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1156,12 +1174,18 @@
       <c r="T7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U7">
-        <f t="shared" ref="U7:U38" si="0">COUNTIF(I7:T7,"F")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W38" si="0">COUNTIF(I7:V7,"F")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1214,12 +1238,18 @@
       <c r="T8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1272,12 +1302,18 @@
       <c r="T9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1330,12 +1366,18 @@
       <c r="T10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1388,12 +1430,18 @@
       <c r="T11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1446,12 +1494,18 @@
       <c r="T12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1486,12 +1540,16 @@
       <c r="T13" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1522,12 +1580,14 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
-      <c r="U14">
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1560,12 +1620,14 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
-      <c r="U15">
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1596,12 +1658,14 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
-      <c r="U16">
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1654,12 +1718,18 @@
       <c r="T17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1692,12 +1762,16 @@
       <c r="T18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U18" s="12"/>
+      <c r="V18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1746,12 +1820,18 @@
       <c r="T19" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1784,12 +1864,14 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
-      <c r="U20">
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1842,12 +1924,18 @@
       <c r="T21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1900,12 +1988,18 @@
       <c r="T22" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U22">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1940,12 +2034,16 @@
         <v>74</v>
       </c>
       <c r="T23" s="12"/>
-      <c r="U23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U23" s="12"/>
+      <c r="V23" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1980,12 +2078,14 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="U24">
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2032,12 +2132,18 @@
       <c r="T25" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U25">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2070,12 +2176,14 @@
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
-      <c r="U26">
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2106,12 +2214,16 @@
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
-      <c r="U27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U27" s="12"/>
+      <c r="V27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2156,12 +2268,18 @@
         <v>74</v>
       </c>
       <c r="T28" s="12"/>
-      <c r="U28">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2196,12 +2314,16 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
-      <c r="U29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U29" s="12"/>
+      <c r="V29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2236,12 +2358,14 @@
         <v>74</v>
       </c>
       <c r="T30" s="12"/>
-      <c r="U30">
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2292,12 +2416,18 @@
       <c r="T31" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U31">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2348,12 +2478,18 @@
       <c r="T32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U32">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2388,12 +2524,14 @@
       </c>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
-      <c r="U33">
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -2428,12 +2566,16 @@
       </c>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
-      <c r="U34">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U34" s="12"/>
+      <c r="V34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -2478,12 +2620,18 @@
       <c r="T35" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U35">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -2520,12 +2668,18 @@
       </c>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
-      <c r="U36">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -2578,12 +2732,18 @@
       <c r="T37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U37">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>22</v>
       </c>
@@ -2614,9 +2774,15 @@
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
-      <c r="U38">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="U38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2625,24 +2791,42 @@
     <mergeCell ref="Q5:Q36"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:R38">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:T36">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="I5:S36 U5:V36">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>" "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:T38">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="I5:S38 U5:V38">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:T38">
+  <conditionalFormatting sqref="S5:S38 U5:V38">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T36">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T38">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T38">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/Asistencia/Grupo 51.xlsx
+++ b/Asistencia/Grupo 51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB1E1B-D543-4AA5-8781-D37338948546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563B0072-D2BC-4696-B0F7-131FB90DCB4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="79">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -405,7 +405,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -874,12 +954,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -887,7 +967,7 @@
     <col min="3" max="3" width="60.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -900,7 +980,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -913,7 +993,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -926,7 +1006,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -987,11 +1067,17 @@
       <c r="V4" s="8">
         <v>45097</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="8">
+        <v>45104</v>
+      </c>
+      <c r="X4" s="8">
+        <v>45111</v>
+      </c>
+      <c r="Y4" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1052,12 +1138,18 @@
       <c r="V5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="W5">
-        <f>COUNTIF(I5:V5,"F")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5">
+        <f>COUNTIF(I5:X5,"F")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1116,12 +1208,18 @@
       <c r="V6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W6">
-        <f>COUNTIF(I6:V6,"F")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6">
+        <f>COUNTIF(I6:X6,"F")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1180,12 +1278,18 @@
       <c r="V7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W7">
-        <f t="shared" ref="W7:W38" si="0">COUNTIF(I7:V7,"F")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7:Y38" si="0">COUNTIF(I7:X7,"F")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1244,12 +1348,18 @@
       <c r="V8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1308,12 +1418,18 @@
       <c r="V9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1372,12 +1488,18 @@
       <c r="V10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1436,12 +1558,18 @@
       <c r="V11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1500,12 +1628,18 @@
       <c r="V12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1544,12 +1678,16 @@
         <v>74</v>
       </c>
       <c r="V13" s="12"/>
-      <c r="W13">
+      <c r="W13" s="12"/>
+      <c r="X13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1582,12 +1720,14 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
-      <c r="W14">
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1622,12 +1762,16 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-      <c r="W15">
+      <c r="W15" s="12"/>
+      <c r="X15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1660,12 +1804,14 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16">
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1724,12 +1870,18 @@
       <c r="V17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y17">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1766,12 +1918,18 @@
       <c r="V18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y18">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1826,12 +1984,18 @@
       <c r="V19" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y19">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1866,12 +2030,16 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
-      <c r="W20">
+      <c r="W20" s="12"/>
+      <c r="X20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y20">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1930,12 +2098,18 @@
       <c r="V21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y21">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1994,12 +2168,18 @@
       <c r="V22" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y22">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2038,12 +2218,18 @@
       <c r="V23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y23">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2080,12 +2266,14 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
-      <c r="W24">
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2138,12 +2326,18 @@
       <c r="V25" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y25">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2178,12 +2372,14 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
-      <c r="W26">
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2218,12 +2414,18 @@
       <c r="V27" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2274,12 +2476,18 @@
       <c r="V28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2318,12 +2526,18 @@
       <c r="V29" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y29">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2360,12 +2574,14 @@
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
-      <c r="W30">
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2422,12 +2638,18 @@
       <c r="V31" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y31">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2484,12 +2706,18 @@
       <c r="V32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y32">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2526,12 +2754,14 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
-      <c r="W33">
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -2570,12 +2800,18 @@
       <c r="V34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y34">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -2626,12 +2862,18 @@
       <c r="V35" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y35">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -2674,12 +2916,18 @@
       <c r="V36" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y36">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -2738,12 +2986,18 @@
       <c r="V37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y37">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>22</v>
       </c>
@@ -2780,9 +3034,15 @@
       <c r="V38" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2791,11 +3051,47 @@
     <mergeCell ref="Q5:Q36"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:R38">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:S36 U5:U36 X5:X36">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:S38 U5:U38 X5:X38">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S38 U5:U38 X5:X38">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T36">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T38">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T38">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:S36 U5:V36">
+  <conditionalFormatting sqref="V5:V36">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>" "</formula>
     </cfRule>
@@ -2803,17 +3099,17 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:S38 U5:V38">
+  <conditionalFormatting sqref="V5:V38">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S38 U5:V38">
+  <conditionalFormatting sqref="V5:V38">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T36">
+  <conditionalFormatting sqref="W5:W36">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>" "</formula>
     </cfRule>
@@ -2821,12 +3117,12 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T38">
+  <conditionalFormatting sqref="W5:W38">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T38">
+  <conditionalFormatting sqref="W5:W38">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
